--- a/features.xlsx
+++ b/features.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming\2007-DataScience\student-performance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30068CC1-C984-4B2F-93DC-BC6248C2E8B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B4C9A71-F2E7-4F75-ACF0-CF37D63D4B90}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="550" yWindow="2830" windowWidth="17000" windowHeight="7370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="76">
   <si>
     <t>Feature</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -316,6 +316,14 @@
   </si>
   <si>
     <t>at latest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Notes:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gender to be encoded in 0 and 1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -641,10 +649,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:E35"/>
+  <dimension ref="A2:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -677,6 +685,9 @@
       <c r="C3" t="s">
         <v>4</v>
       </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
       <c r="E3" t="s">
         <v>5</v>
       </c>
@@ -690,6 +701,9 @@
       </c>
       <c r="C4" t="s">
         <v>4</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
       </c>
       <c r="E4" t="s">
         <v>7</v>
@@ -705,6 +719,9 @@
       <c r="C5" t="s">
         <v>9</v>
       </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
       <c r="E5" t="s">
         <v>10</v>
       </c>
@@ -719,6 +736,9 @@
       <c r="C6" t="s">
         <v>4</v>
       </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
       <c r="E6" t="s">
         <v>12</v>
       </c>
@@ -733,6 +753,9 @@
       <c r="C7" t="s">
         <v>4</v>
       </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
       <c r="E7" t="s">
         <v>14</v>
       </c>
@@ -747,6 +770,9 @@
       <c r="C8" t="s">
         <v>4</v>
       </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
       <c r="E8" t="s">
         <v>16</v>
       </c>
@@ -789,6 +815,9 @@
       <c r="C11" t="s">
         <v>22</v>
       </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
       <c r="E11" t="s">
         <v>24</v>
       </c>
@@ -803,6 +832,9 @@
       <c r="C12" t="s">
         <v>22</v>
       </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
       <c r="E12" t="s">
         <v>25</v>
       </c>
@@ -817,6 +849,9 @@
       <c r="C13" t="s">
         <v>22</v>
       </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
       <c r="E13" t="s">
         <v>27</v>
       </c>
@@ -831,6 +866,9 @@
       <c r="C14" t="s">
         <v>22</v>
       </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
       <c r="E14" t="s">
         <v>29</v>
       </c>
@@ -887,6 +925,9 @@
       <c r="C18" t="s">
         <v>22</v>
       </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
       <c r="E18" t="s">
         <v>37</v>
       </c>
@@ -901,6 +942,9 @@
       <c r="C19" t="s">
         <v>22</v>
       </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
       <c r="E19" t="s">
         <v>39</v>
       </c>
@@ -915,6 +959,9 @@
       <c r="C20" t="s">
         <v>22</v>
       </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
       <c r="E20" t="s">
         <v>41</v>
       </c>
@@ -929,6 +976,9 @@
       <c r="C21" t="s">
         <v>22</v>
       </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
       <c r="E21" t="s">
         <v>43</v>
       </c>
@@ -943,6 +993,9 @@
       <c r="C22" t="s">
         <v>22</v>
       </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
       <c r="E22" t="s">
         <v>45</v>
       </c>
@@ -957,6 +1010,9 @@
       <c r="C23" t="s">
         <v>22</v>
       </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
       <c r="E23" t="s">
         <v>47</v>
       </c>
@@ -971,6 +1027,9 @@
       <c r="C24" t="s">
         <v>22</v>
       </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
       <c r="E24" t="s">
         <v>49</v>
       </c>
@@ -985,6 +1044,9 @@
       <c r="C25" t="s">
         <v>22</v>
       </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
       <c r="E25" t="s">
         <v>51</v>
       </c>
@@ -1083,6 +1145,9 @@
       <c r="C32" t="s">
         <v>9</v>
       </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
       <c r="E32" t="s">
         <v>65</v>
       </c>
@@ -1133,6 +1198,16 @@
       </c>
       <c r="E35" t="s">
         <v>71</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/features.xlsx
+++ b/features.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming\2007-DataScience\student-performance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B4C9A71-F2E7-4F75-ACF0-CF37D63D4B90}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26EBEC65-E196-43D8-8175-AB77D46CA647}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="550" yWindow="2830" windowWidth="17000" windowHeight="7370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-520" yWindow="1510" windowWidth="9840" windowHeight="7370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -347,12 +347,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -367,8 +373,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -651,8 +658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -685,7 +692,7 @@
       <c r="C3" t="s">
         <v>4</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>2</v>
       </c>
       <c r="E3" t="s">
@@ -702,7 +709,7 @@
       <c r="C4" t="s">
         <v>4</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>2</v>
       </c>
       <c r="E4" t="s">
@@ -719,7 +726,7 @@
       <c r="C5" t="s">
         <v>9</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>1</v>
       </c>
       <c r="E5" t="s">
@@ -736,7 +743,7 @@
       <c r="C6" t="s">
         <v>4</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>2</v>
       </c>
       <c r="E6" t="s">
@@ -753,7 +760,7 @@
       <c r="C7" t="s">
         <v>4</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <v>2</v>
       </c>
       <c r="E7" t="s">
@@ -770,7 +777,7 @@
       <c r="C8" t="s">
         <v>4</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="1">
         <v>2</v>
       </c>
       <c r="E8" t="s">
@@ -815,7 +822,7 @@
       <c r="C11" t="s">
         <v>22</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="1">
         <v>2</v>
       </c>
       <c r="E11" t="s">
@@ -832,7 +839,7 @@
       <c r="C12" t="s">
         <v>22</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="1">
         <v>2</v>
       </c>
       <c r="E12" t="s">
@@ -849,7 +856,7 @@
       <c r="C13" t="s">
         <v>22</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="1">
         <v>2</v>
       </c>
       <c r="E13" t="s">
@@ -866,7 +873,7 @@
       <c r="C14" t="s">
         <v>22</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="1">
         <v>2</v>
       </c>
       <c r="E14" t="s">
@@ -925,7 +932,7 @@
       <c r="C18" t="s">
         <v>22</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="1">
         <v>2</v>
       </c>
       <c r="E18" t="s">
@@ -942,7 +949,7 @@
       <c r="C19" t="s">
         <v>22</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="1">
         <v>2</v>
       </c>
       <c r="E19" t="s">
@@ -959,7 +966,7 @@
       <c r="C20" t="s">
         <v>22</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="1">
         <v>2</v>
       </c>
       <c r="E20" t="s">
@@ -976,7 +983,7 @@
       <c r="C21" t="s">
         <v>22</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="1">
         <v>2</v>
       </c>
       <c r="E21" t="s">
@@ -993,7 +1000,7 @@
       <c r="C22" t="s">
         <v>22</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="1">
         <v>2</v>
       </c>
       <c r="E22" t="s">
@@ -1010,7 +1017,7 @@
       <c r="C23" t="s">
         <v>22</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="1">
         <v>2</v>
       </c>
       <c r="E23" t="s">
@@ -1027,7 +1034,7 @@
       <c r="C24" t="s">
         <v>22</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="1">
         <v>2</v>
       </c>
       <c r="E24" t="s">
@@ -1044,7 +1051,7 @@
       <c r="C25" t="s">
         <v>22</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="1">
         <v>2</v>
       </c>
       <c r="E25" t="s">
@@ -1145,7 +1152,7 @@
       <c r="C32" t="s">
         <v>9</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="1">
         <v>1</v>
       </c>
       <c r="E32" t="s">

--- a/features.xlsx
+++ b/features.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming\2007-DataScience\student-performance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26EBEC65-E196-43D8-8175-AB77D46CA647}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B904F4C-AFB8-4C6E-AB1D-4FB0A9CF35E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-520" yWindow="1510" windowWidth="9840" windowHeight="7370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1510" windowWidth="9840" windowHeight="7370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="75">
   <si>
     <t>Feature</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -312,10 +312,6 @@
   </si>
   <si>
     <t>when to consider</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>at latest</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -347,7 +343,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -357,6 +353,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -373,9 +375,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -658,8 +661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -794,6 +797,9 @@
       <c r="C9" t="s">
         <v>18</v>
       </c>
+      <c r="D9" s="1">
+        <v>3</v>
+      </c>
       <c r="E9" t="s">
         <v>19</v>
       </c>
@@ -808,6 +814,9 @@
       <c r="C10" t="s">
         <v>18</v>
       </c>
+      <c r="D10" s="1">
+        <v>3</v>
+      </c>
       <c r="E10" t="s">
         <v>19</v>
       </c>
@@ -890,6 +899,9 @@
       <c r="C15" t="s">
         <v>18</v>
       </c>
+      <c r="D15" s="1">
+        <v>3</v>
+      </c>
       <c r="E15" t="s">
         <v>31</v>
       </c>
@@ -904,6 +916,9 @@
       <c r="C16" t="s">
         <v>18</v>
       </c>
+      <c r="D16" s="1">
+        <v>3</v>
+      </c>
       <c r="E16" t="s">
         <v>33</v>
       </c>
@@ -918,6 +933,9 @@
       <c r="C17" t="s">
         <v>18</v>
       </c>
+      <c r="D17" s="1">
+        <v>3</v>
+      </c>
       <c r="E17" t="s">
         <v>35</v>
       </c>
@@ -1068,6 +1086,9 @@
       <c r="C26" t="s">
         <v>18</v>
       </c>
+      <c r="D26" s="1">
+        <v>3</v>
+      </c>
       <c r="E26" t="s">
         <v>53</v>
       </c>
@@ -1082,6 +1103,9 @@
       <c r="C27" t="s">
         <v>18</v>
       </c>
+      <c r="D27" s="1">
+        <v>3</v>
+      </c>
       <c r="E27" t="s">
         <v>55</v>
       </c>
@@ -1096,6 +1120,9 @@
       <c r="C28" t="s">
         <v>18</v>
       </c>
+      <c r="D28" s="1">
+        <v>3</v>
+      </c>
       <c r="E28" t="s">
         <v>57</v>
       </c>
@@ -1110,6 +1137,9 @@
       <c r="C29" t="s">
         <v>18</v>
       </c>
+      <c r="D29" s="1">
+        <v>3</v>
+      </c>
       <c r="E29" t="s">
         <v>59</v>
       </c>
@@ -1124,6 +1154,9 @@
       <c r="C30" t="s">
         <v>18</v>
       </c>
+      <c r="D30" s="1">
+        <v>3</v>
+      </c>
       <c r="E30" t="s">
         <v>61</v>
       </c>
@@ -1138,6 +1171,9 @@
       <c r="C31" t="s">
         <v>18</v>
       </c>
+      <c r="D31" s="1">
+        <v>3</v>
+      </c>
       <c r="E31" t="s">
         <v>63</v>
       </c>
@@ -1169,8 +1205,8 @@
       <c r="C33" t="s">
         <v>9</v>
       </c>
-      <c r="D33" t="s">
-        <v>73</v>
+      <c r="D33" s="2">
+        <v>3</v>
       </c>
       <c r="E33" t="s">
         <v>67</v>
@@ -1186,8 +1222,8 @@
       <c r="C34" t="s">
         <v>9</v>
       </c>
-      <c r="D34" t="s">
-        <v>73</v>
+      <c r="D34" s="2">
+        <v>3</v>
       </c>
       <c r="E34" t="s">
         <v>69</v>
@@ -1209,12 +1245,12 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
